--- a/database/统计&分析.xlsx
+++ b/database/统计&分析.xlsx
@@ -16,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+  <si>
+    <t>数据量</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
   <si>
     <t>sql</t>
   </si>
@@ -24,10 +30,10 @@
     <t>SELECT * FROM `t_user_chat_message` WHERE (((`session_id` = 139498 AND `is_delete` = 'NO' ) AND `own_id` = 139497 ) AND `client_id` = 15769 ) ORDER BY `order_by` DESC,`id` DESC LIMIT 20 OFFSET 0</t>
   </si>
   <si>
-    <t>数据量</t>
+    <t>新增了orderby index</t>
   </si>
   <si>
-    <t>时间</t>
+    <t>Analyze</t>
   </si>
   <si>
     <t>1-1000</t>
@@ -36,55 +42,109 @@
     <t>新增order_by 索引</t>
   </si>
   <si>
+    <t>1-10000</t>
+  </si>
+  <si>
     <t>2-1000</t>
+  </si>
+  <si>
+    <t>2-10000</t>
   </si>
   <si>
     <t>3-1000</t>
   </si>
   <si>
+    <t>3-10000</t>
+  </si>
+  <si>
     <t>4-1000</t>
+  </si>
+  <si>
+    <t>4-10000</t>
   </si>
   <si>
     <t>5-1000</t>
   </si>
   <si>
+    <t>5-10000</t>
+  </si>
+  <si>
     <t>6-1000</t>
+  </si>
+  <si>
+    <t>6-10000</t>
   </si>
   <si>
     <t>7-1000</t>
   </si>
   <si>
+    <t>7-10000</t>
+  </si>
+  <si>
     <t>8-1000</t>
+  </si>
+  <si>
+    <t>8-10000</t>
   </si>
   <si>
     <t>9-1000</t>
   </si>
   <si>
+    <t>9-10000</t>
+  </si>
+  <si>
     <t>10-1000</t>
+  </si>
+  <si>
+    <t>10-10000</t>
   </si>
   <si>
     <t>11-1000</t>
   </si>
   <si>
+    <t>11-10000</t>
+  </si>
+  <si>
     <t>12-1000</t>
+  </si>
+  <si>
+    <t>12-10000</t>
   </si>
   <si>
     <t>13-1000</t>
   </si>
   <si>
+    <t>13-10000</t>
+  </si>
+  <si>
     <t>14-1000</t>
+  </si>
+  <si>
+    <t>14-10000</t>
   </si>
   <si>
     <t>15-1000</t>
   </si>
   <si>
+    <t>15-10000</t>
+  </si>
+  <si>
     <t>16-1000</t>
+  </si>
+  <si>
+    <t>16-10000</t>
   </si>
   <si>
     <t>17-1000</t>
   </si>
   <si>
+    <t>17-10000</t>
+  </si>
+  <si>
     <t>18-1000</t>
+  </si>
+  <si>
+    <t>18-10000</t>
   </si>
 </sst>
 </file>
@@ -92,12 +152,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -145,13 +198,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -159,7 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +228,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,27 +241,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,21 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -259,7 +297,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,19 +339,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,25 +363,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,25 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,37 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,37 +465,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,30 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -524,17 +553,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,162 +589,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -824,11 +874,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -841,7 +891,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0668133883539661"/>
+          <c:y val="0.220249077490775"/>
+          <c:w val="0.93043558000917"/>
+          <c:h val="0.632472324723247"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -850,7 +910,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1_user'!$D$1</c:f>
+              <c:f>'1_user'!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -860,7 +920,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -872,13 +932,65 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1_user'!$C$2:$C$21</c:f>
+              <c:f>'1_user'!$C$1:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>数据量</c:v>
                 </c:pt>
@@ -938,63 +1050,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1_user'!$D$2:$D$21</c:f>
+              <c:f>'1_user'!$D$1:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4</c:v>
+                  <c:v>4.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.5</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.5</c:v>
+                  <c:v>25.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.2</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.7</c:v>
+                  <c:v>32.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.1</c:v>
+                  <c:v>36.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66.1</c:v>
+                  <c:v>76.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98.7</c:v>
+                  <c:v>110.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>131.8</c:v>
+                  <c:v>144.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>165</c:v>
+                  <c:v>178.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>197.5</c:v>
+                  <c:v>213.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>231.2</c:v>
+                  <c:v>252.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>264.1</c:v>
+                  <c:v>286.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,12 +1115,27 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="96194804"/>
@@ -1028,7 +1155,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1042,9 +1169,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1070,20 +1197,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1100,9 +1213,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1119,7 +1232,19 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1132,11 +1257,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1943,6 +2068,8 @@
         <c:axId val="651870748"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.2"/>
+          <c:min val="3.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1979,6 +2106,7 @@
         <c:crossAx val="52944342"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:gradFill>
@@ -2907,6 +3035,373 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>多_user!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>时间</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>多_user!$R$2:$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1-10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-10000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13-10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14-10000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15-10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16-10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17-10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18-10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>多_user!$S$2:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="942987820"/>
+        <c:axId val="805319233"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="942987820"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="805319233"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="805319233"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="942987820"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3107,523 +3602,47 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4161,7 +4180,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4699,7 +4718,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5237,7 +5256,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5775,20 +5794,1074 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4578350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273685</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5796,8 +6869,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9626600" y="952500"/>
-        <a:ext cx="4572000" cy="4286250"/>
+        <a:off x="5816600" y="4612640"/>
+        <a:ext cx="4344035" cy="2753360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5932,6 +7005,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="21504275" y="4727575"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6222,170 +7325,613 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="61.5" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="9" max="10" width="20.375" customWidth="1"/>
+    <col min="11" max="11" width="27.25" customWidth="1"/>
+    <col min="12" max="12" width="24.75" customWidth="1"/>
+    <col min="15" max="15" width="27.25" customWidth="1"/>
+    <col min="16" max="16" width="24.75" customWidth="1"/>
+    <col min="19" max="19" width="27.25" customWidth="1"/>
+    <col min="20" max="20" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="73" customHeight="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="3:20">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="3:4">
-      <c r="C2" s="2" t="s">
+    <row r="2" ht="76" customHeight="1" spans="1:20">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>4.9</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>4.7</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
+      </c>
+      <c r="P2">
+        <v>5.2</v>
+      </c>
+      <c r="S2">
+        <v>1000</v>
+      </c>
+      <c r="T2">
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" spans="3:20">
       <c r="C3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D3">
-        <v>4.4</v>
+        <v>8.1</v>
+      </c>
+      <c r="G3">
+        <v>2000</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>2000</v>
+      </c>
+      <c r="L3">
+        <v>7.8</v>
+      </c>
+      <c r="O3">
+        <v>2000</v>
+      </c>
+      <c r="P3">
+        <v>8.1</v>
+      </c>
+      <c r="S3">
+        <v>2000</v>
+      </c>
+      <c r="T3">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="3:20">
       <c r="C4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D4">
-        <v>7.3</v>
+        <v>11.4</v>
+      </c>
+      <c r="G4">
+        <v>3000</v>
+      </c>
+      <c r="H4">
+        <v>11.7</v>
+      </c>
+      <c r="K4">
+        <v>3000</v>
+      </c>
+      <c r="L4">
+        <v>11.2</v>
+      </c>
+      <c r="O4">
+        <v>3000</v>
+      </c>
+      <c r="P4">
+        <v>11.4</v>
+      </c>
+      <c r="S4">
+        <v>3000</v>
+      </c>
+      <c r="T4">
+        <v>11.2</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:20">
       <c r="C5">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D5">
-        <v>10.5</v>
+        <v>14.8</v>
+      </c>
+      <c r="G5">
+        <v>4000</v>
+      </c>
+      <c r="H5">
+        <v>15.1</v>
+      </c>
+      <c r="K5">
+        <v>4000</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>4000</v>
+      </c>
+      <c r="P5">
+        <v>14.8</v>
+      </c>
+      <c r="S5">
+        <v>4000</v>
+      </c>
+      <c r="T5">
+        <v>14.9</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:20">
       <c r="C6">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>5000</v>
+      </c>
+      <c r="H6">
+        <v>18.7</v>
+      </c>
+      <c r="K6">
+        <v>5000</v>
+      </c>
+      <c r="L6">
+        <v>17.9</v>
+      </c>
+      <c r="O6">
+        <v>5000</v>
+      </c>
+      <c r="P6">
+        <v>18.1</v>
+      </c>
+      <c r="S6">
+        <v>5000</v>
+      </c>
+      <c r="T6">
+        <v>17.9</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:20">
       <c r="C7">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>6000</v>
+      </c>
+      <c r="H7">
+        <v>21.8</v>
+      </c>
+      <c r="K7">
+        <v>6000</v>
+      </c>
+      <c r="L7">
+        <v>21.6</v>
+      </c>
+      <c r="O7">
+        <v>6000</v>
+      </c>
+      <c r="P7">
+        <v>21.5</v>
+      </c>
+      <c r="S7">
+        <v>6000</v>
+      </c>
+      <c r="T7">
+        <v>22.2</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:20">
       <c r="C8">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="D8">
-        <v>20.2</v>
+        <v>25.7</v>
+      </c>
+      <c r="G8">
+        <v>7000</v>
+      </c>
+      <c r="H8">
+        <v>27.2</v>
+      </c>
+      <c r="K8">
+        <v>7000</v>
+      </c>
+      <c r="L8">
+        <v>25.3</v>
+      </c>
+      <c r="O8">
+        <v>7000</v>
+      </c>
+      <c r="P8">
+        <v>26</v>
+      </c>
+      <c r="S8">
+        <v>7000</v>
+      </c>
+      <c r="T8">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:20">
       <c r="C9">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="D9">
-        <v>23.5</v>
+        <v>28.5</v>
+      </c>
+      <c r="G9">
+        <v>8000</v>
+      </c>
+      <c r="H9">
+        <v>30.9</v>
+      </c>
+      <c r="K9">
+        <v>8000</v>
+      </c>
+      <c r="L9">
+        <v>28.8</v>
+      </c>
+      <c r="O9">
+        <v>8000</v>
+      </c>
+      <c r="P9">
+        <v>28.6</v>
+      </c>
+      <c r="S9">
+        <v>8000</v>
+      </c>
+      <c r="T9">
+        <v>28.4</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:20">
       <c r="C10">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="D10">
-        <v>27.2</v>
+        <v>32.3</v>
+      </c>
+      <c r="G10">
+        <v>9000</v>
+      </c>
+      <c r="H10">
+        <v>34.2</v>
+      </c>
+      <c r="K10">
+        <v>9000</v>
+      </c>
+      <c r="L10">
+        <v>32.3</v>
+      </c>
+      <c r="O10">
+        <v>9000</v>
+      </c>
+      <c r="P10">
+        <v>32.3</v>
+      </c>
+      <c r="S10">
+        <v>9000</v>
+      </c>
+      <c r="T10">
+        <v>32.6</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:20">
       <c r="C11">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="D11">
-        <v>29.7</v>
+        <v>36.2</v>
+      </c>
+      <c r="G11">
+        <v>10000</v>
+      </c>
+      <c r="H11">
+        <v>39.4</v>
+      </c>
+      <c r="K11">
+        <v>10000</v>
+      </c>
+      <c r="L11">
+        <v>36.1</v>
+      </c>
+      <c r="O11">
+        <v>10000</v>
+      </c>
+      <c r="P11">
+        <v>36.6</v>
+      </c>
+      <c r="S11">
+        <v>10000</v>
+      </c>
+      <c r="T11">
+        <v>36.6</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="3:20">
       <c r="C12">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D12">
-        <v>33.1</v>
+        <v>76.4</v>
+      </c>
+      <c r="G12">
+        <v>20000</v>
+      </c>
+      <c r="H12">
+        <v>77.2</v>
+      </c>
+      <c r="K12">
+        <v>20000</v>
+      </c>
+      <c r="L12">
+        <v>71.7</v>
+      </c>
+      <c r="O12">
+        <v>20000</v>
+      </c>
+      <c r="P12">
+        <v>71.7</v>
+      </c>
+      <c r="S12">
+        <v>20000</v>
+      </c>
+      <c r="T12">
+        <v>72.8</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="3:20">
       <c r="C13">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="D13">
-        <v>66.1</v>
+        <v>110.1</v>
+      </c>
+      <c r="G13">
+        <v>30000</v>
+      </c>
+      <c r="H13">
+        <v>114.6</v>
+      </c>
+      <c r="K13">
+        <v>30000</v>
+      </c>
+      <c r="L13">
+        <v>108.6</v>
+      </c>
+      <c r="O13">
+        <v>30000</v>
+      </c>
+      <c r="P13">
+        <v>113.1</v>
+      </c>
+      <c r="S13">
+        <v>30000</v>
+      </c>
+      <c r="T13">
+        <v>108.1</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="3:20">
       <c r="C14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D14">
-        <v>98.7</v>
+        <v>144.9</v>
+      </c>
+      <c r="G14">
+        <v>40000</v>
+      </c>
+      <c r="H14">
+        <v>154.4</v>
+      </c>
+      <c r="K14">
+        <v>40000</v>
+      </c>
+      <c r="L14">
+        <v>142.5</v>
+      </c>
+      <c r="O14">
+        <v>40000</v>
+      </c>
+      <c r="P14">
+        <v>153.2</v>
+      </c>
+      <c r="S14">
+        <v>40000</v>
+      </c>
+      <c r="T14">
+        <v>143.6</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="3:20">
       <c r="C15">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="D15">
-        <v>131.8</v>
+        <v>178.6</v>
+      </c>
+      <c r="G15">
+        <v>50000</v>
+      </c>
+      <c r="H15">
+        <v>191.5</v>
+      </c>
+      <c r="K15">
+        <v>50000</v>
+      </c>
+      <c r="L15">
+        <v>183.1</v>
+      </c>
+      <c r="O15">
+        <v>50000</v>
+      </c>
+      <c r="P15">
+        <v>185.4</v>
+      </c>
+      <c r="S15">
+        <v>50000</v>
+      </c>
+      <c r="T15">
+        <v>179.7</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
+    <row r="16" spans="3:20">
       <c r="C16">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="D16">
-        <v>165</v>
+        <v>213.7</v>
+      </c>
+      <c r="G16">
+        <v>60000</v>
+      </c>
+      <c r="H16">
+        <v>227.2</v>
+      </c>
+      <c r="K16">
+        <v>60000</v>
+      </c>
+      <c r="L16">
+        <v>215.9</v>
+      </c>
+      <c r="O16">
+        <v>60000</v>
+      </c>
+      <c r="P16">
+        <v>214</v>
+      </c>
+      <c r="S16">
+        <v>60000</v>
+      </c>
+      <c r="T16">
+        <v>215.1</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:20">
       <c r="C17">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="D17">
-        <v>197.5</v>
+        <v>252.2</v>
+      </c>
+      <c r="G17">
+        <v>70000</v>
+      </c>
+      <c r="H17">
+        <v>267.5</v>
+      </c>
+      <c r="K17">
+        <v>70000</v>
+      </c>
+      <c r="L17">
+        <v>254.1</v>
+      </c>
+      <c r="O17">
+        <v>70000</v>
+      </c>
+      <c r="P17">
+        <v>252.4</v>
+      </c>
+      <c r="S17">
+        <v>70000</v>
+      </c>
+      <c r="T17">
+        <v>262.1</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:20">
       <c r="C18">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="D18">
-        <v>231.2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19">
+        <v>286.1</v>
+      </c>
+      <c r="G18">
         <v>80000</v>
       </c>
-      <c r="D19">
-        <v>264.1</v>
+      <c r="H18">
+        <v>289.4</v>
+      </c>
+      <c r="K18">
+        <v>80000</v>
+      </c>
+      <c r="L18">
+        <v>347.9</v>
+      </c>
+      <c r="O18">
+        <v>80000</v>
+      </c>
+      <c r="P18">
+        <v>285.6</v>
+      </c>
+      <c r="S18">
+        <v>80000</v>
+      </c>
+      <c r="T18">
+        <v>301.9</v>
       </c>
     </row>
   </sheetData>
@@ -6399,10 +7945,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6418,509 +7964,844 @@
     <col min="13" max="13" width="13.125" customWidth="1"/>
     <col min="14" max="14" width="19.375" customWidth="1"/>
     <col min="15" max="15" width="24.875" customWidth="1"/>
+    <col min="18" max="18" width="19.125" customWidth="1"/>
+    <col min="19" max="19" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="3:15">
-      <c r="C1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="3:24">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="98" customHeight="1" spans="1:28">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="98" customHeight="1" spans="1:15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>4.6</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>5.1</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>5</v>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L2">
         <v>4.7</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O2">
         <v>4.7</v>
       </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>37</v>
+      </c>
+      <c r="W2">
+        <v>3.7</v>
+      </c>
+      <c r="X2">
+        <v>3.3</v>
+      </c>
+      <c r="AA2">
+        <v>3.4</v>
+      </c>
+      <c r="AB2">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="3" spans="3:15">
+    <row r="3" spans="3:28">
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>4.6</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>4.6</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L3">
         <v>4.7</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O3">
         <v>4.6</v>
       </c>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>36.4</v>
+      </c>
+      <c r="W3">
+        <v>3.6</v>
+      </c>
+      <c r="X3">
+        <v>0.1</v>
+      </c>
+      <c r="AA3">
+        <v>3.4</v>
+      </c>
+      <c r="AB3">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="4" spans="3:15">
+    <row r="4" spans="3:28">
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>4.7</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>4.4</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L4">
         <v>4.6</v>
       </c>
       <c r="N4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O4">
         <v>4.6</v>
       </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>36.3</v>
+      </c>
+      <c r="W4">
+        <v>3.5</v>
+      </c>
+      <c r="X4">
+        <v>0.1</v>
+      </c>
+      <c r="AA4">
+        <v>3.6</v>
+      </c>
+      <c r="AB4">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="5" spans="3:15">
+    <row r="5" spans="3:28">
       <c r="C5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>4.4</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>4.6</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <v>4.4</v>
       </c>
       <c r="N5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O5">
         <v>4.6</v>
       </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5">
+        <v>37.9</v>
+      </c>
+      <c r="W5">
+        <v>3.5</v>
+      </c>
+      <c r="X5">
+        <v>0.3</v>
+      </c>
+      <c r="AA5">
+        <v>3.6</v>
+      </c>
+      <c r="AB5">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="3:28">
       <c r="C6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>4.5</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L6">
         <v>4.4</v>
       </c>
       <c r="N6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O6">
         <v>5.1</v>
       </c>
+      <c r="R6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6">
+        <v>38.3</v>
+      </c>
+      <c r="W6">
+        <v>3.7</v>
+      </c>
+      <c r="X6">
+        <v>0.2</v>
+      </c>
+      <c r="AA6">
+        <v>3.5</v>
+      </c>
+      <c r="AB6">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="3:28">
       <c r="C7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>4.4</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>4.4</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <v>4.5</v>
       </c>
       <c r="N7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O7">
         <v>4.5</v>
       </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7">
+        <v>38.1</v>
+      </c>
+      <c r="W7">
+        <v>3.7</v>
+      </c>
+      <c r="X7">
+        <v>3.5</v>
+      </c>
+      <c r="AA7">
+        <v>3.8</v>
+      </c>
+      <c r="AB7">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="3:28">
       <c r="C8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>4.5</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>4.4</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L8">
         <v>4.5</v>
       </c>
       <c r="N8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O8">
         <v>4.8</v>
       </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8">
+        <v>38.6</v>
+      </c>
+      <c r="W8">
+        <v>3.6</v>
+      </c>
+      <c r="X8">
+        <v>3.5</v>
+      </c>
+      <c r="AA8">
+        <v>3.6</v>
+      </c>
+      <c r="AB8">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="9" spans="3:15">
+    <row r="9" spans="3:28">
       <c r="C9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>4.3</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>4.8</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L9">
         <v>4.3</v>
       </c>
       <c r="N9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O9">
         <v>4.9</v>
       </c>
+      <c r="R9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9">
+        <v>38.8</v>
+      </c>
+      <c r="W9">
+        <v>3.7</v>
+      </c>
+      <c r="X9">
+        <v>3.5</v>
+      </c>
+      <c r="AA9">
+        <v>3.7</v>
+      </c>
+      <c r="AB9">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="10" spans="3:15">
+    <row r="10" spans="3:28">
       <c r="C10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>4.6</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H10">
         <v>4.6</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L10">
         <v>4.7</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="O10">
         <v>4.6</v>
       </c>
+      <c r="R10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10">
+        <v>40.8</v>
+      </c>
+      <c r="W10">
+        <v>3.5</v>
+      </c>
+      <c r="X10">
+        <v>3.6</v>
+      </c>
+      <c r="AA10">
+        <v>3.7</v>
+      </c>
+      <c r="AB10">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="11" spans="3:15">
+    <row r="11" spans="3:28">
       <c r="C11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>4.7</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H11">
         <v>4.5</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L11">
         <v>4.5</v>
       </c>
       <c r="N11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O11">
         <v>4.4</v>
       </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11">
+        <v>38.3</v>
+      </c>
+      <c r="W11">
+        <v>3.7</v>
+      </c>
+      <c r="X11">
+        <v>3.7</v>
+      </c>
+      <c r="AA11">
+        <v>3.7</v>
+      </c>
+      <c r="AB11">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="12" spans="3:15">
+    <row r="12" spans="3:28">
       <c r="C12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>4.9</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H12">
         <v>4.7</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L12">
         <v>4.5</v>
       </c>
       <c r="N12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="O12">
         <v>4.8</v>
       </c>
+      <c r="R12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12">
+        <v>37.6</v>
+      </c>
+      <c r="W12">
+        <v>3.9</v>
+      </c>
+      <c r="X12">
+        <v>3.5</v>
+      </c>
+      <c r="AA12">
+        <v>3.6</v>
+      </c>
+      <c r="AB12">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="13" spans="3:15">
+    <row r="13" spans="3:28">
       <c r="C13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>5.1</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>4.8</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L13">
         <v>4.8</v>
       </c>
       <c r="N13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="O13">
         <v>4.7</v>
       </c>
+      <c r="R13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13">
+        <v>39.1</v>
+      </c>
+      <c r="W13">
+        <v>3.6</v>
+      </c>
+      <c r="X13">
+        <v>3.4</v>
+      </c>
+      <c r="AA13">
+        <v>3.7</v>
+      </c>
+      <c r="AB13">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="14" spans="3:15">
+    <row r="14" spans="3:28">
       <c r="C14" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>4.8</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>4.6</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L14">
         <v>4.6</v>
       </c>
       <c r="N14" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="O14">
         <v>4.8</v>
       </c>
+      <c r="R14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14">
+        <v>38.2</v>
+      </c>
+      <c r="W14">
+        <v>4.1</v>
+      </c>
+      <c r="X14">
+        <v>3.7</v>
+      </c>
+      <c r="AA14">
+        <v>3.7</v>
+      </c>
+      <c r="AB14">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="15" spans="3:15">
+    <row r="15" spans="3:28">
       <c r="C15" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>4.7</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>4.9</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L15">
         <v>4.7</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="O15">
         <v>4.4</v>
       </c>
+      <c r="R15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15">
+        <v>38.9</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <v>3.5</v>
+      </c>
+      <c r="AA15">
+        <v>3.7</v>
+      </c>
+      <c r="AB15">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="16" spans="3:15">
+    <row r="16" spans="3:28">
       <c r="C16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>4.8</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>4.5</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>4.7</v>
       </c>
       <c r="N16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O16">
         <v>4.9</v>
       </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16">
+        <v>38.8</v>
+      </c>
+      <c r="W16">
+        <v>3.9</v>
+      </c>
+      <c r="X16">
+        <v>3.9</v>
+      </c>
+      <c r="AA16">
+        <v>3.5</v>
+      </c>
+      <c r="AB16">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:28">
       <c r="C17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>4.8</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>4.9</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L17">
         <v>4.5</v>
       </c>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="O17">
         <v>4.7</v>
       </c>
+      <c r="R17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17">
+        <v>38.2</v>
+      </c>
+      <c r="W17">
+        <v>3.8</v>
+      </c>
+      <c r="X17">
+        <v>3.8</v>
+      </c>
+      <c r="AA17">
+        <v>3.6</v>
+      </c>
+      <c r="AB17">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="18" spans="3:15">
+    <row r="18" spans="3:28">
       <c r="C18" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>4.7</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>4.5</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="L18">
         <v>4.9</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="O18">
         <v>4.9</v>
       </c>
+      <c r="R18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18">
+        <v>38.6</v>
+      </c>
+      <c r="W18">
+        <v>3.5</v>
+      </c>
+      <c r="X18">
+        <v>3.6</v>
+      </c>
+      <c r="AA18">
+        <v>3.6</v>
+      </c>
+      <c r="AB18">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="3:28">
       <c r="C19" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>4.4</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>4.9</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L19">
         <v>4.9</v>
       </c>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="O19">
         <v>4.8</v>
+      </c>
+      <c r="R19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19">
+        <v>38.1</v>
+      </c>
+      <c r="W19">
+        <v>3.9</v>
+      </c>
+      <c r="X19">
+        <v>3.9</v>
+      </c>
+      <c r="AA19">
+        <v>3.7</v>
+      </c>
+      <c r="AB19">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/database/统计&分析.xlsx
+++ b/database/统计&分析.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="13650" activeTab="1"/>
+    <workbookView windowWidth="27765" windowHeight="13650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1_user" sheetId="1" r:id="rId1"/>
     <sheet name="多_user" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="测试sqlite 记录" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>数据量</t>
   </si>
@@ -146,20 +146,296 @@
   <si>
     <t>18-10000</t>
   </si>
+  <si>
+    <t>创建表：create table if not exists t_user(id Integer  PRIMARY KEY AUTOINCREMENT, name text, job_num text, age Integer, address" +
+                " text, UNIQUE (id));
+create table if not exists t_group(id Integer  PRIMARY KEY AUTOINCREMENT, name text, creator Integer, UNIQUE (id));</t>
+  </si>
+  <si>
+    <t>测试机器： 三星note4</t>
+  </si>
+  <si>
+    <t>场景描述</t>
+  </si>
+  <si>
+    <t>分支条件</t>
+  </si>
+  <si>
+    <t>ormlite 批量插入5000条User数据；(数据库中原始数据为0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">插入时：主键id给值；  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次结果</t>
+    </r>
+  </si>
+  <si>
+    <t>2756ms,3012ms,2349ms,3054ms,2402ms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">插入时：主键id没有值；  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次结果</t>
+    </r>
+  </si>
+  <si>
+    <t>2902ms,2708ms,3024ms,3046ms,3271ms</t>
+  </si>
+  <si>
+    <t>db 批量插入5000条User数据；(数据库中原始数据为0)</t>
+  </si>
+  <si>
+    <t>3032ms,2770ms,2873ms,3151ms,2726ms</t>
+  </si>
+  <si>
+    <t>2696ms,3176ms,3046ms,3306ms,2816ms</t>
+  </si>
+  <si>
+    <t>结论：</t>
+  </si>
+  <si>
+    <t>db 事务和ormlite事务差不多</t>
+  </si>
+  <si>
+    <t>ormlite 批量插入2500条User数据，2500条Group数据；(数据库中原始数据为0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user表事务2500；group表事务2500；
+插入时：主键id没有值；  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次结果</t>
+    </r>
+  </si>
+  <si>
+    <t>4166ms,3526ms,4522ms,3424ms,4059ms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user表事务 user=2500,group=2500；
+插入时：主键id没有值；  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次结果</t>
+    </r>
+  </si>
+  <si>
+    <t>4843ms,4197ms,3775ms,3867ms,3626ms</t>
+  </si>
+  <si>
+    <t>db 批量插入2500条User数据，2500条Group数据；(数据库中原始数据为0)</t>
+  </si>
+  <si>
+    <t>3724ms,4633ms,3537ms,3807ms,5035ms</t>
+  </si>
+  <si>
+    <t>3866ms,4094ms,4437ms,3794ms, 3331ms,</t>
+  </si>
+  <si>
+    <t>db 事务比ormlite事务好一点点；
+一个事务比两个事务快</t>
+  </si>
+  <si>
+    <t>ormlite 批量插入2500条User数据，2500条Group数据；
+有查询一个user,查询一个group
+(数据库中原始数据为0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user表事务 user=2500,group=2500；
+插入时：主键id没有值； </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次结果</t>
+    </r>
+  </si>
+  <si>
+    <t>4025ms,4226ms,4006ms,4002ms,4269ms</t>
+  </si>
+  <si>
+    <t>db 批量插入2500条User数据，2500条Group数据；
+有查询一个user,查询一个group
+(数据库中原始数据为0)</t>
+  </si>
+  <si>
+    <t>3719ms,3364ms,4879ms,4167ms,3442ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db 事务比ormlite事务好一点；
+db 事务，中间有查询与没有查询 速度几乎一样；
+orlite 事务， 中间有查询与没有查询  速度差一点
+</t>
+  </si>
+  <si>
+    <t>ormlite 批量插入2500条User数据，2500条Group数据；
+每插入10条 查询一个user,查询一个group
+(数据库中原始数据为0)</t>
+  </si>
+  <si>
+    <t>5024ms,4062ms,4855ms,4955ms,4775ms</t>
+  </si>
+  <si>
+    <t>db 批量插入2500条User数据，2500条Group数据；
+每插入10条  查询一个user,查询一个group
+(数据库中原始数据为0)</t>
+  </si>
+  <si>
+    <t>4597ms,4667ms,4392ms,5499ms,4635ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db 事务比ormlite事务好一点；
+</t>
+  </si>
+  <si>
+    <t>3734ms,3645ms,4664ms,3990ms,3944ms</t>
+  </si>
+  <si>
+    <t>以下：所有的插入返回id值</t>
+  </si>
+  <si>
+    <t>4760ms,3946ms,5048ms,4133ms,5026ms</t>
+  </si>
+  <si>
+    <t>4700ms,3568ms,3766ms,3708ms,3696ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db 事务比ormlite事务要好
+</t>
+  </si>
+  <si>
+    <t>8311ms,8044ms,8524ms,7192ms,6970ms</t>
+  </si>
+  <si>
+    <t>7980ms,7624ms,6852ms,7199ms,8989ms</t>
+  </si>
+  <si>
+    <t>ormlite 批量插入2500条User数据，2500条Group数据；
+查询一个user,查询一个group; 更新一个user,查询一个group;
+(数据库中原始数据为0)</t>
+  </si>
+  <si>
+    <t>9384ms,8917ms,8869ms,10180ms,9181ms</t>
+  </si>
+  <si>
+    <t>db 批量插入2500条User数据，2500条Group数据；
+查询一个user,查询一个group; 更新一个user,查询一个group;
+(数据库中原始数据为0)</t>
+  </si>
+  <si>
+    <t>8084ms,9045ms,7999ms,8287ms,8562ms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -175,7 +451,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +499,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,51 +525,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -264,40 +549,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,18 +565,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -333,97 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +640,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,13 +670,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +718,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,37 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,17 +816,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,24 +851,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -590,17 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,6 +877,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,10 +921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,141 +933,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7349,35 +7656,35 @@
     <col min="20" max="20" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="3:20">
-      <c r="C1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" ht="31" customHeight="1" spans="3:20">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7385,7 +7692,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -7947,7 +8254,7 @@
   <sheetPr/>
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
@@ -7968,38 +8275,38 @@
     <col min="19" max="19" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="3:24">
-      <c r="C1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" ht="31" customHeight="1" spans="3:24">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8007,7 +8314,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -8022,7 +8329,7 @@
       <c r="H2">
         <v>5.1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K2" t="s">
@@ -8815,14 +9122,372 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="59.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="175.5" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="2:3">
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" ht="39" customHeight="1"/>
+    <row r="10" ht="40.5" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" ht="36" customHeight="1" spans="2:3">
+      <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="2:3">
+      <c r="B13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" ht="57" customHeight="1" spans="2:3">
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" ht="54" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" ht="42" customHeight="1" spans="2:2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" ht="54" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" ht="51" customHeight="1" spans="2:3">
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" ht="67.5" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" ht="67.5" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="2:3">
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" ht="33" customHeight="1" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" ht="27" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" ht="39" customHeight="1" spans="2:3">
+      <c r="B34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" ht="60" customHeight="1" spans="1:1">
+      <c r="A39" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" ht="27" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" ht="40.5" spans="2:3">
+      <c r="B43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" ht="67.5" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" ht="67.5" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" spans="2:3">
+      <c r="B48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="51" ht="67.5" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" ht="67.5" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" ht="40.5" spans="2:3">
+      <c r="B54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
